--- a/include/Li_ion_battery_figure.xlsx
+++ b/include/Li_ion_battery_figure.xlsx
@@ -43,6 +43,12 @@
     <t xml:space="preserve">From a cartoon plot</t>
   </si>
   <si>
+    <t xml:space="preserve">https://globalsky.media/advanced-air-mobility/the-key-things-to-know-about-evtol-batteries/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From the cartoon, present day </t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.sciencedirect.com/science/article/pii/S0378775300004584</t>
   </si>
   <si>
@@ -59,12 +65,6 @@
   </si>
   <si>
     <t xml:space="preserve">From actual data, Amprius Si anode cells </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://globalsky.media/advanced-air-mobility/the-key-things-to-know-about-evtol-batteries/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From the cartoon, present day </t>
   </si>
 </sst>
 </file>
@@ -174,13 +174,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E108"/>
+  <dimension ref="A1:L110"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -215,6 +215,17 @@
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>290.055335</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>1.0167947</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
@@ -228,6 +239,17 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
+      <c r="H3" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>293.139969</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>1.39529315</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
@@ -241,6 +263,17 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
+      <c r="H4" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>290.055335</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>1.94684297</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
@@ -254,6 +287,17 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
+      <c r="H5" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>290.055335</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>2.76203805</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
@@ -267,6 +311,17 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
+      <c r="H6" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>287.003159</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>3.72759372</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
@@ -280,6 +335,17 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
+      <c r="H7" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>287.003159</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>5.37725434</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
@@ -293,6 +359,17 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
+      <c r="H8" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>280.994821</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>7.88725458</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
@@ -306,6 +383,17 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="H9" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>278.037986</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>11.7631711</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
@@ -319,6 +407,17 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
+      <c r="H10" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>280.994821</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>17.5437716</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
@@ -332,6 +431,17 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
+      <c r="H11" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>278.037986</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <v>25.097955</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
@@ -345,6 +455,17 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
+      <c r="H12" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>269.352861</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>38.6993291</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
@@ -358,6 +479,17 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
+      <c r="H13" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>266.518532</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>63.2535626</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
@@ -371,6 +503,17 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
+      <c r="H14" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>263.714027</v>
+      </c>
+      <c r="J14" s="2" t="n">
+        <v>102.529753</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
@@ -384,8 +527,19 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-    </row>
-    <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H15" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>263.714027</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <v>147.90468</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
         <v>2005</v>
       </c>
@@ -397,6 +551,21 @@
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
+      <c r="H16" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>255.476342</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <v>213.360453</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
@@ -410,6 +579,17 @@
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
+      <c r="H17" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>244.891644</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>323.553238</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
@@ -423,6 +603,17 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
+      <c r="H18" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>232.275318</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>494.759581</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
@@ -436,6 +627,17 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
+      <c r="H19" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>206.760263</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>719.685673</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
@@ -449,6 +651,17 @@
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
+      <c r="H20" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>178.298851</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>963.219211</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
@@ -462,6 +675,17 @@
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
+      <c r="H21" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>147.385002</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>1216.16068</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
@@ -475,6 +699,17 @@
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
+      <c r="H22" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>118.025405</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <v>1472.90114</v>
+      </c>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
@@ -488,6 +723,17 @@
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
+      <c r="H23" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>88.7018379</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <v>1798.75857</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
@@ -501,6 +747,17 @@
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
+      <c r="H24" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>61.9056766</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <v>1906.73058</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
@@ -747,10 +1004,10 @@
         <v>334.883721</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -907,10 +1164,10 @@
         <v>13.6914233</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1197,10 +1454,10 @@
         <v>44.7740513</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1307,316 +1564,38 @@
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
     </row>
-    <row r="86" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B86" s="2" t="n">
-        <v>290.055335</v>
-      </c>
-      <c r="C86" s="2" t="n">
-        <v>1.0167947</v>
-      </c>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-    </row>
-    <row r="87" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="2" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B87" s="2" t="n">
-        <v>293.139969</v>
-      </c>
-      <c r="C87" s="2" t="n">
-        <v>1.39529315</v>
-      </c>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-    </row>
-    <row r="88" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="2" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B88" s="2" t="n">
-        <v>290.055335</v>
-      </c>
-      <c r="C88" s="2" t="n">
-        <v>1.94684297</v>
-      </c>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-    </row>
-    <row r="89" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="2" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B89" s="2" t="n">
-        <v>290.055335</v>
-      </c>
-      <c r="C89" s="2" t="n">
-        <v>2.76203805</v>
-      </c>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-    </row>
-    <row r="90" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="2" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B90" s="2" t="n">
-        <v>287.003159</v>
-      </c>
-      <c r="C90" s="2" t="n">
-        <v>3.72759372</v>
-      </c>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-    </row>
-    <row r="91" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="2" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B91" s="2" t="n">
-        <v>287.003159</v>
-      </c>
-      <c r="C91" s="2" t="n">
-        <v>5.37725434</v>
-      </c>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-    </row>
-    <row r="92" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="2" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B92" s="2" t="n">
-        <v>280.994821</v>
-      </c>
-      <c r="C92" s="2" t="n">
-        <v>7.88725458</v>
-      </c>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-    </row>
-    <row r="93" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="2" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B93" s="2" t="n">
-        <v>278.037986</v>
-      </c>
-      <c r="C93" s="2" t="n">
-        <v>11.7631711</v>
-      </c>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-    </row>
-    <row r="94" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="2" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B94" s="2" t="n">
-        <v>280.994821</v>
-      </c>
-      <c r="C94" s="2" t="n">
-        <v>17.5437716</v>
-      </c>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-    </row>
-    <row r="95" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="2" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B95" s="2" t="n">
-        <v>278.037986</v>
-      </c>
-      <c r="C95" s="2" t="n">
-        <v>25.097955</v>
-      </c>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-    </row>
-    <row r="96" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="2" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B96" s="2" t="n">
-        <v>269.352861</v>
-      </c>
-      <c r="C96" s="2" t="n">
-        <v>38.6993291</v>
-      </c>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-    </row>
-    <row r="97" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="2" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B97" s="2" t="n">
-        <v>266.518532</v>
-      </c>
-      <c r="C97" s="2" t="n">
-        <v>63.2535626</v>
-      </c>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-    </row>
-    <row r="98" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="2" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B98" s="2" t="n">
-        <v>263.714027</v>
-      </c>
-      <c r="C98" s="2" t="n">
-        <v>102.529753</v>
-      </c>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-    </row>
-    <row r="99" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="2" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B99" s="2" t="n">
-        <v>263.714027</v>
-      </c>
-      <c r="C99" s="2" t="n">
-        <v>147.90468</v>
-      </c>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-    </row>
-    <row r="100" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="2" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B100" s="2" t="n">
-        <v>255.476342</v>
-      </c>
-      <c r="C100" s="2" t="n">
-        <v>213.360453</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="2" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B101" s="2" t="n">
-        <v>244.891644</v>
-      </c>
-      <c r="C101" s="2" t="n">
-        <v>323.553238</v>
-      </c>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-    </row>
-    <row r="102" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="2" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B102" s="2" t="n">
-        <v>232.275318</v>
-      </c>
-      <c r="C102" s="2" t="n">
-        <v>494.759581</v>
-      </c>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-    </row>
-    <row r="103" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="2" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B103" s="2" t="n">
-        <v>206.760263</v>
-      </c>
-      <c r="C103" s="2" t="n">
-        <v>719.685673</v>
-      </c>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-    </row>
-    <row r="104" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="2" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B104" s="2" t="n">
-        <v>178.298851</v>
-      </c>
-      <c r="C104" s="2" t="n">
-        <v>963.219211</v>
-      </c>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
-    </row>
-    <row r="105" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="2" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B105" s="2" t="n">
-        <v>147.385002</v>
-      </c>
-      <c r="C105" s="2" t="n">
-        <v>1216.16068</v>
-      </c>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-    </row>
-    <row r="106" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="2" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B106" s="2" t="n">
-        <v>118.025405</v>
-      </c>
-      <c r="C106" s="2" t="n">
-        <v>1472.90114</v>
-      </c>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
-    </row>
-    <row r="107" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="2" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B107" s="2" t="n">
-        <v>88.7018379</v>
-      </c>
-      <c r="C107" s="2" t="n">
-        <v>1798.75857</v>
-      </c>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
-    </row>
-    <row r="108" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="2" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B108" s="2" t="n">
-        <v>61.9056766</v>
-      </c>
-      <c r="C108" s="2" t="n">
-        <v>1906.73058</v>
-      </c>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="https://doi.org/10.1016/j.jpowsour.2005.03.205"/>
-    <hyperlink ref="D43" r:id="rId2" display="https://www.sciencedirect.com/science/article/pii/S0378775300004584"/>
-    <hyperlink ref="D55" r:id="rId3" display="https://pubs.acs.org/doi/10.1021/acs.jpclett.5b01813"/>
-    <hyperlink ref="D77" r:id="rId4" display="https://www1.grc.nasa.gov/wp-content/uploads/5.-Amprius.pdf"/>
-    <hyperlink ref="D100" r:id="rId5" display="https://globalsky.media/advanced-air-mobility/the-key-things-to-know-about-evtol-batteries/"/>
+    <hyperlink ref="K16" r:id="rId2" display="https://globalsky.media/advanced-air-mobility/the-key-things-to-know-about-evtol-batteries/"/>
+    <hyperlink ref="D43" r:id="rId3" display="https://www.sciencedirect.com/science/article/pii/S0378775300004584"/>
+    <hyperlink ref="D55" r:id="rId4" display="https://pubs.acs.org/doi/10.1021/acs.jpclett.5b01813"/>
+    <hyperlink ref="D77" r:id="rId5" display="https://www1.grc.nasa.gov/wp-content/uploads/5.-Amprius.pdf"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/include/Li_ion_battery_figure.xlsx
+++ b/include/Li_ion_battery_figure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasdonahue/Desktop/Classes/Research/Li-Ion-Visualizer/include/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E261750-5DC5-7A4B-B450-3C1547823FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D30A912-D232-B345-AD41-4207EDD1CA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4660" yWindow="1580" windowWidth="23200" windowHeight="13780" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="72">
   <si>
     <t>Year</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>From cartoon, Fig 29</t>
+  </si>
+  <si>
+    <t>ARMY GOAL?</t>
   </si>
 </sst>
 </file>
@@ -259,12 +262,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -279,13 +288,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -603,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2127,10 +2139,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
+    <row r="68" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B68" s="2">
+        <v>227.27</v>
+      </c>
+      <c r="C68" s="2">
+        <v>2272.7199999999998</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>

--- a/include/Li_ion_battery_figure.xlsx
+++ b/include/Li_ion_battery_figure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasdonahue/Desktop/Classes/Research/Li-Ion-Visualizer/include/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D30A912-D232-B345-AD41-4207EDD1CA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC072B7C-BDA6-AE48-AA65-B4BF6ACB72CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4660" yWindow="1580" windowWidth="23200" windowHeight="13780" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -615,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2144,10 +2144,10 @@
         <v>2025</v>
       </c>
       <c r="B68" s="2">
-        <v>227.27</v>
+        <v>326</v>
       </c>
       <c r="C68" s="2">
-        <v>2272.7199999999998</v>
+        <v>2333.3330000000001</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>71</v>

--- a/include/Li_ion_battery_figure.xlsx
+++ b/include/Li_ion_battery_figure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasdonahue/Desktop/Classes/Research/Li-Ion-Visualizer/include/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC072B7C-BDA6-AE48-AA65-B4BF6ACB72CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A31579-31C2-0041-88B3-F6AAD7E277CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4660" yWindow="1580" windowWidth="23200" windowHeight="13780" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="520" yWindow="1320" windowWidth="23200" windowHeight="13780" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,17 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="77">
   <si>
     <t>Year</t>
   </si>
   <si>
-    <t>Wh/kg</t>
-  </si>
-  <si>
-    <t>W/kg</t>
-  </si>
-  <si>
     <t>Reference</t>
   </si>
   <si>
@@ -81,9 +75,6 @@
     <t>https://pubs.acs.org/doi/10.1021/acs.jpclett.5b01815</t>
   </si>
   <si>
-    <t>From cartoon, Fig 3</t>
-  </si>
-  <si>
     <t>https://pubs.acs.org/doi/10.1021/acs.jpclett.5b01816</t>
   </si>
   <si>
@@ -241,13 +232,37 @@
   </si>
   <si>
     <t>ARMY GOAL?</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Purple</t>
+  </si>
+  <si>
+    <t>Specific Energy (Wh/kg)</t>
+  </si>
+  <si>
+    <t>Specific Power (W/kg)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -260,6 +275,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCE9178"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -288,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -299,6 +320,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -615,31 +637,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="87.5" customWidth="1"/>
     <col min="5" max="5" width="22.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
+      <c r="F1" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="85" x14ac:dyDescent="0.2">
@@ -653,10 +679,13 @@
         <v>334.88372099999998</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>70</v>
       </c>
       <c r="H2" s="2">
         <v>2005</v>
@@ -668,10 +697,10 @@
         <v>1881.5232699999999</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -685,10 +714,13 @@
         <v>238.95348799999999</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>70</v>
       </c>
       <c r="H3" s="2">
         <v>2005</v>
@@ -711,10 +743,13 @@
         <v>124.418605</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>70</v>
       </c>
       <c r="H4" s="2">
         <v>2005</v>
@@ -737,10 +772,13 @@
         <v>65.697674399999997</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
       </c>
       <c r="H5" s="2">
         <v>2005</v>
@@ -763,10 +801,13 @@
         <v>27.906976700000001</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>70</v>
       </c>
       <c r="H6" s="2">
         <v>2005</v>
@@ -789,10 +830,13 @@
         <v>0.99142914999999998</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>71</v>
       </c>
       <c r="H7" s="2">
         <v>2005</v>
@@ -815,10 +859,13 @@
         <v>1.3632623500000001</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>71</v>
       </c>
       <c r="H8" s="2">
         <v>2005</v>
@@ -841,10 +888,13 @@
         <v>2.0430564800000002</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>18</v>
+        <v>71</v>
+      </c>
+      <c r="F9" t="s">
+        <v>71</v>
       </c>
       <c r="H9" s="2">
         <v>2005</v>
@@ -867,10 +917,13 @@
         <v>2.90771209</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>71</v>
       </c>
       <c r="H10" s="2">
         <v>2005</v>
@@ -893,10 +946,13 @@
         <v>4.1740798000000003</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>71</v>
       </c>
       <c r="H11" s="2">
         <v>2005</v>
@@ -919,10 +975,13 @@
         <v>6.2554950099999997</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>71</v>
       </c>
       <c r="H12" s="2">
         <v>2005</v>
@@ -945,10 +1004,13 @@
         <v>9.9570535099999997</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>71</v>
       </c>
       <c r="H13" s="2">
         <v>2005</v>
@@ -971,10 +1033,13 @@
         <v>13.6914233</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>71</v>
       </c>
       <c r="H14" s="2">
         <v>2005</v>
@@ -997,10 +1062,13 @@
         <v>19.4858622</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="F15" t="s">
+        <v>71</v>
       </c>
       <c r="H15" s="2">
         <v>2005</v>
@@ -1023,10 +1091,13 @@
         <v>30.750378600000001</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
+        <v>71</v>
       </c>
       <c r="H16" s="2">
         <v>2005</v>
@@ -1049,10 +1120,13 @@
         <v>43.7644521</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="F17" t="s">
+        <v>71</v>
       </c>
       <c r="H17" s="2">
         <v>2005</v>
@@ -1075,10 +1149,13 @@
         <v>59.662429600000003</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="F18" t="s">
+        <v>71</v>
       </c>
       <c r="H18" s="2">
         <v>2005</v>
@@ -1101,10 +1178,13 @@
         <v>75.923082399999998</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="F19" t="s">
+        <v>71</v>
       </c>
       <c r="H19" s="2">
         <v>2005</v>
@@ -1127,10 +1207,13 @@
         <v>106.210689</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="F20" t="s">
+        <v>71</v>
       </c>
       <c r="H20" s="2">
         <v>2005</v>
@@ -1153,10 +1236,13 @@
         <v>151.16082499999999</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="F21" t="s">
+        <v>71</v>
       </c>
       <c r="H21" s="2">
         <v>2005</v>
@@ -1179,10 +1265,13 @@
         <v>189.07561200000001</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+      <c r="F22" t="s">
+        <v>71</v>
       </c>
       <c r="H22" s="2">
         <v>2005</v>
@@ -1205,10 +1294,13 @@
         <v>251.18864300000001</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>71</v>
       </c>
       <c r="H23" s="2">
         <v>2005</v>
@@ -1231,10 +1323,13 @@
         <v>306.18316499999997</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="F24" t="s">
+        <v>71</v>
       </c>
       <c r="H24" s="2">
         <v>2005</v>
@@ -1257,10 +1352,13 @@
         <v>373.218031</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="F25" t="s">
+        <v>71</v>
       </c>
       <c r="H25" s="2">
         <v>2005</v>
@@ -1283,10 +1381,13 @@
         <v>421.01645000000002</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+      <c r="F26" t="s">
+        <v>71</v>
       </c>
       <c r="H26" s="2">
         <v>2005</v>
@@ -1309,10 +1410,13 @@
         <v>479.04226499999999</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
+      </c>
+      <c r="F27" t="s">
+        <v>71</v>
       </c>
       <c r="H27" s="2">
         <v>2005</v>
@@ -1335,10 +1439,13 @@
         <v>545.06537900000001</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
+      </c>
+      <c r="F28" t="s">
+        <v>71</v>
       </c>
       <c r="H28" s="2">
         <v>2005</v>
@@ -1361,10 +1468,13 @@
         <v>609.602485</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
+      </c>
+      <c r="F29" t="s">
+        <v>71</v>
       </c>
       <c r="H29" s="2">
         <v>2005</v>
@@ -1387,10 +1497,13 @@
         <v>658.70595400000002</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="F30" t="s">
+        <v>71</v>
       </c>
       <c r="H30" s="2">
         <v>2005</v>
@@ -1413,10 +1526,13 @@
         <v>711.76470500000005</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
+      </c>
+      <c r="F31" t="s">
+        <v>71</v>
       </c>
       <c r="H31" s="2">
         <v>2005</v>
@@ -1439,10 +1555,13 @@
         <v>789.21669099999997</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
+      </c>
+      <c r="F32" t="s">
+        <v>71</v>
       </c>
       <c r="H32" s="2">
         <v>2005</v>
@@ -1465,10 +1584,13 @@
         <v>845.47895800000003</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
+      </c>
+      <c r="F33" t="s">
+        <v>71</v>
       </c>
       <c r="H33" s="2">
         <v>2005</v>
@@ -1491,10 +1613,13 @@
         <v>845.47895800000003</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="F34" t="s">
+        <v>71</v>
       </c>
       <c r="H34" s="2">
         <v>2005</v>
@@ -1517,10 +1642,13 @@
         <v>897.98902299999997</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
+      </c>
+      <c r="F35" t="s">
+        <v>71</v>
       </c>
       <c r="H35" s="2">
         <v>2005</v>
@@ -1543,10 +1671,13 @@
         <v>44.774051299999996</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="F36" t="s">
+        <v>72</v>
       </c>
       <c r="H36" s="2">
         <v>2005</v>
@@ -1569,10 +1700,13 @@
         <v>87.959251499999993</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="F37" t="s">
+        <v>72</v>
       </c>
       <c r="H37" s="2">
         <v>2005</v>
@@ -1595,10 +1729,13 @@
         <v>211.59879799999999</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="F38" t="s">
+        <v>72</v>
       </c>
       <c r="H38" s="2">
         <v>2005</v>
@@ -1621,10 +1758,13 @@
         <v>355.89316600000001</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="F39" t="s">
+        <v>72</v>
       </c>
       <c r="H39" s="2">
         <v>2005</v>
@@ -1647,10 +1787,13 @@
         <v>358.30444799999998</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>72</v>
       </c>
       <c r="H40" s="2">
         <v>2005</v>
@@ -1673,10 +1816,13 @@
         <v>657.93322499999999</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="F41" t="s">
+        <v>72</v>
       </c>
       <c r="H41" s="2">
         <v>2005</v>
@@ -1699,10 +1845,13 @@
         <v>953.83255399999996</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="F42" t="s">
+        <v>72</v>
       </c>
       <c r="H42" s="2">
         <v>2005</v>
@@ -1725,10 +1874,13 @@
         <v>1199.9934800000001</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="F43" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -1742,10 +1894,13 @@
         <v>1479.40805</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="F44" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -1759,10 +1914,13 @@
         <v>1.0167946999999999</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="F45" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -1776,10 +1934,13 @@
         <v>1.3952931500000001</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="F46" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -1793,10 +1954,13 @@
         <v>1.9468429700000001</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="F47" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -1810,13 +1974,16 @@
         <v>2.7620380500000001</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="F48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>2022</v>
       </c>
@@ -1827,13 +1994,16 @@
         <v>3.7275937200000002</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="F49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>2022</v>
       </c>
@@ -1844,13 +2014,16 @@
         <v>5.3772543400000004</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="F50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>2022</v>
       </c>
@@ -1861,13 +2034,16 @@
         <v>7.8872545799999996</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="F51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>2022</v>
       </c>
@@ -1878,13 +2054,16 @@
         <v>11.763171099999999</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="F52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>2022</v>
       </c>
@@ -1895,13 +2074,16 @@
         <v>17.543771599999999</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="F53" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>2022</v>
       </c>
@@ -1912,13 +2094,16 @@
         <v>25.097954999999999</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="F54" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>2022</v>
       </c>
@@ -1929,13 +2114,16 @@
         <v>38.6993291</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="F55" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>2022</v>
       </c>
@@ -1946,13 +2134,16 @@
         <v>63.253562600000002</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="F56" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>2022</v>
       </c>
@@ -1963,13 +2154,16 @@
         <v>102.529753</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="F57" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>2022</v>
       </c>
@@ -1980,13 +2174,16 @@
         <v>147.90468000000001</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="F58" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>2022</v>
       </c>
@@ -1997,13 +2194,16 @@
         <v>213.36045300000001</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="F59" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>2022</v>
       </c>
@@ -2014,13 +2214,16 @@
         <v>323.55323800000002</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="F60" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>2022</v>
       </c>
@@ -2031,13 +2234,16 @@
         <v>494.75958100000003</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="F61" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>2022</v>
       </c>
@@ -2048,13 +2254,16 @@
         <v>719.68567299999995</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="F62" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>2022</v>
       </c>
@@ -2065,13 +2274,16 @@
         <v>963.21921099999997</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="F63" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>2022</v>
       </c>
@@ -2082,13 +2294,16 @@
         <v>1216.16068</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="F64" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>2022</v>
       </c>
@@ -2099,13 +2314,16 @@
         <v>1472.9011399999999</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="F65" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>2022</v>
       </c>
@@ -2116,13 +2334,16 @@
         <v>1798.75857</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="F66" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>2022</v>
       </c>
@@ -2133,13 +2354,16 @@
         <v>1906.7305799999999</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="F67" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>2025</v>
       </c>
@@ -2150,67 +2374,70 @@
         <v>2333.3330000000001</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="F68" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>

--- a/include/Li_ion_battery_figure.xlsx
+++ b/include/Li_ion_battery_figure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasdonahue/Desktop/Classes/Research/Li-Ion-Visualizer/include/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A31579-31C2-0041-88B3-F6AAD7E277CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5BE31A-EC2C-CC42-BA6B-506209A450DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="1320" windowWidth="23200" windowHeight="13780" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="1300" windowWidth="23200" windowHeight="13780" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="78">
   <si>
     <t>Year</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>Specific Power (W/kg)</t>
+  </si>
+  <si>
+    <t>f</t>
   </si>
 </sst>
 </file>
@@ -637,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2380,10 +2383,25 @@
         <v>74</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
+    <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>2030</v>
+      </c>
+      <c r="B69" s="2">
+        <v>500</v>
+      </c>
+      <c r="C69" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F69" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
